--- a/data/Financial_Models/AFL Filtered.xlsx
+++ b/data/Financial_Models/AFL Filtered.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS25"/>
+  <dimension ref="A1:BR25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,6 @@
       <c r="BP1" t="inlineStr"/>
       <c r="BQ1" t="inlineStr"/>
       <c r="BR1" t="inlineStr"/>
-      <c r="BS1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -595,7 +594,6 @@
       <c r="BP2" t="inlineStr"/>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -810,7 +808,6 @@
       <c r="BR3" t="n">
         <v>366</v>
       </c>
-      <c r="BS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1163,11 +1160,6 @@
           <t>2028-12-31</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1380,7 +1372,6 @@
       <c r="BR5" t="n">
         <v>5707.201103430408</v>
       </c>
-      <c r="BS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1593,7 +1584,6 @@
       <c r="BR6" t="n">
         <v>2731.487233945249</v>
       </c>
-      <c r="BS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1806,7 +1796,6 @@
       <c r="BR7" t="n">
         <v>185</v>
       </c>
-      <c r="BS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2019,7 +2008,6 @@
       <c r="BR8" t="n">
         <v>1112.93493733131</v>
       </c>
-      <c r="BS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2232,7 +2220,6 @@
       <c r="BR9" t="n">
         <v>5707.201103430408</v>
       </c>
-      <c r="BS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2445,7 +2432,6 @@
       <c r="BR10" t="n">
         <v>2731.487233945249</v>
       </c>
-      <c r="BS10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2622,7 +2608,6 @@
       <c r="BR11" t="n">
         <v>185</v>
       </c>
-      <c r="BS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2835,7 +2820,6 @@
       <c r="BR12" t="n">
         <v>3383.327470532423</v>
       </c>
-      <c r="BS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3048,7 +3032,6 @@
       <c r="BR13" t="n">
         <v>80</v>
       </c>
-      <c r="BS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3125,7 +3108,6 @@
       <c r="BP14" t="inlineStr"/>
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="inlineStr"/>
-      <c r="BS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3338,7 +3320,6 @@
       <c r="BR15" t="n">
         <v>65.22519800000001</v>
       </c>
-      <c r="BS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3415,7 +3396,6 @@
       <c r="BP16" t="inlineStr"/>
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="inlineStr"/>
-      <c r="BS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3626,7 +3606,6 @@
       <c r="BR17" t="n">
         <v>0.0882928256364965</v>
       </c>
-      <c r="BS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3703,7 +3682,6 @@
       <c r="BP18" t="inlineStr"/>
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="inlineStr"/>
-      <c r="BS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3916,7 +3894,6 @@
       <c r="BR19" t="n">
         <v>0.1801310513423527</v>
       </c>
-      <c r="BS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4127,7 +4104,6 @@
       <c r="BR20" t="n">
         <v>0.032</v>
       </c>
-      <c r="BS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4204,7 +4180,6 @@
       <c r="BP21" t="inlineStr"/>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="inlineStr"/>
-      <c r="BS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4281,7 +4256,6 @@
       <c r="BP22" t="inlineStr"/>
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4358,7 +4332,6 @@
       <c r="BP23" t="inlineStr"/>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4435,7 +4408,6 @@
       <c r="BP24" t="inlineStr"/>
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="inlineStr"/>
-      <c r="BS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4512,9 +4484,8 @@
       <c r="BP25" t="inlineStr"/>
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="inlineStr"/>
-      <c r="BS25" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>